--- a/CE09OSSM/Omaha_Cal_Info_CE09OSSM_00001.xlsx
+++ b/CE09OSSM/Omaha_Cal_Info_CE09OSSM_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CE09OSSM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" tabRatio="766"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="207">
   <si>
     <t>Ref Des</t>
   </si>
@@ -417,9 +417,6 @@
     <t>CE09OSSM-MFD35-05-PCO2WB000</t>
   </si>
   <si>
-    <t>CE09OSSM-MFD00-00-CAMSA000</t>
-  </si>
-  <si>
     <t>CE09OSSM-SBC11-00-CPMENG000</t>
   </si>
   <si>
@@ -465,9 +462,6 @@
     <t>CE09OSSM-MFD35-02-PRESFC000</t>
   </si>
   <si>
-    <t>CE09OSSM-MFD37-00-ZPLSCC000</t>
-  </si>
-  <si>
     <t>CE09OSSM-00001</t>
   </si>
   <si>
@@ -478,9 +472,6 @@
   </si>
   <si>
     <t>OC1503D</t>
-  </si>
-  <si>
-    <t>CE09OSSM-00001+MOPAK</t>
   </si>
   <si>
     <t>34-230-50A</t>
@@ -627,9 +618,6 @@
     <t>No Calibration Coefficient</t>
   </si>
   <si>
-    <t>542m</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -661,6 +649,27 @@
   </si>
   <si>
     <t>CE09OSSM</t>
+  </si>
+  <si>
+    <t>CE09OSSM-MFD37-07-ZPLSCC000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-MFD37-06-CAMDSA000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-SBD11-02-HYDGN0000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-SBD12-03-HYDGN0000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-SBD11-HYDGN</t>
+  </si>
+  <si>
+    <t>CE09OSSM-SBD12-HYDGN</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00001-MOPAK</t>
   </si>
 </sst>
 </file>
@@ -1594,26 +1603,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="19" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="19"/>
+    <col min="3" max="3" width="15.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -1651,12 +1660,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1669,16 +1678,16 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="5">
+        <v>542</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="25">
@@ -1704,26 +1713,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38:F39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1746,1082 +1755,1040 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="23"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>46.853848333333332</v>
+      <c r="D5" s="23" t="s">
+        <v>204</v>
       </c>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="1">
+    <row r="6" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-124.95838333333333</v>
-      </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.05</v>
+      <c r="D7" s="23" t="s">
+        <v>205</v>
       </c>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4.08</v>
-      </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
-        <v>4.08</v>
+        <v>46.853848333333332</v>
       </c>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
-        <v>4.6399999999999997</v>
+        <v>-124.95838333333333</v>
       </c>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.05</v>
+      </c>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4.08</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1">
-        <v>600</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+        <v>4.08</v>
+      </c>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="11"/>
+      <c r="D15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="G15" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>152</v>
+      <c r="D17" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1">
-        <v>46.853848333333332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="G19" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-124.95838333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1">
-        <v>46.853848333333332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>46.853848333333332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1">
-        <v>46.853848333333332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>46.853848333333332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1">
-        <v>17533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+        <v>46.853848333333332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="1">
-        <v>38502</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+        <v>-124.95838333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1">
+        <v>17533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="29">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="D32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="11">
-        <v>35</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1">
+        <v>38502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="1">
-        <v>17533</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F34" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="1">
+        <v>18</v>
+      </c>
+      <c r="F35" s="29">
         <v>1</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>161</v>
+    </row>
+    <row r="36" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="1">
-        <v>38502</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F36" s="11">
+        <v>35</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1">
+        <v>17533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="29">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="D40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="11">
+      <c r="B41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="11">
-        <v>35</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="1">
+        <v>38502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F42" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="1">
+        <v>18</v>
+      </c>
+      <c r="F43" s="29">
         <v>1</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>154</v>
+    </row>
+    <row r="44" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="1">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="11">
+        <v>35</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="1">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="6">
+      <c r="B49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="1">
         <v>1</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="6">
         <v>1</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="1">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D53" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F57" s="1">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
       </c>
-      <c r="D60" s="1">
-        <v>1155</v>
+      <c r="D60" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
       </c>
-      <c r="D61" s="1">
-        <v>1155</v>
+      <c r="D61" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1.84E-6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
-      <c r="D62" s="1">
-        <v>1155</v>
+      <c r="D62" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1155</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="1">
-        <v>7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -2830,18 +2797,18 @@
         <v>1155</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F64" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -2850,18 +2817,18 @@
         <v>1155</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1">
-        <v>9.0300000000000005E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.84E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -2870,21 +2837,18 @@
         <v>1155</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="F66" s="1">
-        <v>117</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -2893,21 +2857,18 @@
         <v>1155</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="F67" s="1">
-        <v>700</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -2916,21 +2877,18 @@
         <v>1155</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F68" s="1">
-        <v>1.08</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -2939,1057 +2897,1083 @@
         <v>1155</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="F69" s="1">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G69" s="1" t="s">
+        <v>9.0300000000000005E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1155</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" s="1">
+        <v>117</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>153</v>
+      <c r="D71" s="1">
+        <v>1155</v>
       </c>
       <c r="E71" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="1">
+        <v>700</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1155</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1155</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F73" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F75" s="1">
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="9">
-        <v>1</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="9">
-        <v>-124.95838333333333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="9">
-        <v>1</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F73" s="9">
-        <v>1.271243E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="9">
-        <v>1</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F74" s="9">
-        <v>2.7474180000000001E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C75" s="9">
-        <v>1</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F75" s="9">
-        <v>-1.5384759999999999E-6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C76" s="9">
         <v>1</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="F76" s="9">
-        <v>1.962203E-7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-124.95838333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C77" s="9">
         <v>1</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F77" s="9">
-        <v>-58.45279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1.271243E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C78" s="9">
         <v>1</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F78" s="9">
-        <v>53.847279999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2.7474180000000001E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C79" s="9">
         <v>1</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F79" s="9">
-        <v>-0.54758289999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-1.5384759999999999E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C80" s="9">
         <v>1</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F80" s="9">
-        <v>524685.69999999995</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1.962203E-7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C81" s="9">
         <v>1</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F81" s="9">
-        <v>37.232759999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-58.45279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C82" s="9">
         <v>1</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F82" s="9">
-        <v>-0.91068749999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>53.847279999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C83" s="9">
         <v>1</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F83" s="9">
-        <v>24.993870000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-0.54758289999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C84" s="9">
         <v>1</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F84" s="9">
-        <v>-2.5000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>524685.69999999995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C85" s="9">
         <v>1</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F85" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>37.232759999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C86" s="9">
         <v>1</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F86" s="9">
-        <v>0.1858051</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-0.91068749999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C87" s="9">
         <v>1</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F87" s="9">
-        <v>4.8880889999999995E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>24.993870000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C88" s="9">
         <v>1</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F88" s="9">
-        <v>-6.2283480000000003E-12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-2.5000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C89" s="9">
         <v>1</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F89" s="9">
-        <v>-0.98255250000000005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C90" s="9">
         <v>1</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F90" s="9">
-        <v>0.1389213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.1858051</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C91" s="9">
         <v>1</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F91" s="9">
-        <v>-2.5215239999999998E-4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>4.8880889999999995E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C92" s="9">
         <v>1</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F92" s="9">
-        <v>3.7572340000000002E-5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-6.2283480000000003E-12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C93" s="9">
         <v>1</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F93" s="9">
-        <v>-9.5700000000000003E-8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-0.98255250000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C94" s="9">
         <v>1</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E94" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F94" s="9">
+        <v>0.1389213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C95" s="9">
+        <v>1</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F95" s="9">
+        <v>-2.5215239999999998E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="9">
+        <v>1</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F96" s="9">
+        <v>3.7572340000000002E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="9">
+        <v>1</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F97" s="9">
+        <v>-9.5700000000000003E-8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="9">
+        <v>1</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E98" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F98" s="9">
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" s="1">
+    <row r="99" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="1">
         <v>1</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E96" s="11" t="s">
+      <c r="D100" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F100" s="1">
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" s="1">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" s="1">
         <v>1</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E97" s="11" t="s">
+      <c r="D101" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F101" s="1">
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C98" s="11">
-        <v>1</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F98" s="11">
-        <v>1.2886E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C99" s="11">
-        <v>1</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F99" s="11">
-        <v>2.6747309999999999E-4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C100" s="11">
-        <v>1</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F100" s="11">
-        <v>-5.8357599999999998E-7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C101" s="11">
-        <v>1</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F101" s="11">
-        <v>1.5942049999999999E-7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C102" s="11">
         <v>1</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F102" s="11">
-        <v>-63.97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1.2886E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C103" s="11">
         <v>1</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F103" s="11">
-        <v>53.352960000000003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2.6747309999999999E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C104" s="11">
         <v>1</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F104" s="11">
-        <v>-0.60973619999999995</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-5.8357599999999998E-7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C105" s="11">
         <v>1</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F105" s="11">
-        <v>524536.69999999995</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1.5942049999999999E-7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C106" s="11">
         <v>1</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F106" s="11">
-        <v>-60.361229999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-63.97</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C107" s="11">
         <v>1</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F107" s="11">
-        <v>0.93277659999999996</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>53.352960000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C108" s="11">
         <v>1</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F108" s="11">
-        <v>24.888870000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-0.60973619999999995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C109" s="11">
         <v>1</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F109" s="11">
-        <v>-6.2500000000000001E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>524536.69999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C110" s="11">
         <v>1</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F110" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-60.361229999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C111" s="11">
         <v>1</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F111" s="11">
-        <v>-2.2917869999999998</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.93277659999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C112" s="11">
         <v>1</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F112" s="11">
-        <v>2.6512390000000001E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>24.888870000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C113" s="11">
         <v>1</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F113" s="11">
-        <v>1.57055E-11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-6.2500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C114" s="11">
         <v>1</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F114" s="11">
-        <v>-0.98847790000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C115" s="11">
         <v>1</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F115" s="11">
-        <v>0.14048479999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-2.2917869999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C116" s="11">
         <v>1</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F116" s="11">
-        <v>-5.8074639999999996E-4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2.6512390000000001E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C117" s="11">
         <v>1</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F117" s="11">
-        <v>5.740902E-5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1.57055E-11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C118" s="11">
         <v>1</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F118" s="11">
-        <v>-9.5700000000000003E-8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-0.98847790000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C119" s="11">
         <v>1</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E119" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F119" s="11">
+        <v>0.14048479999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="11">
+        <v>1</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120" s="11">
+        <v>-5.8074639999999996E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="11">
+        <v>1</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F121" s="11">
+        <v>5.740902E-5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="11">
+        <v>1</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F122" s="11">
+        <v>-9.5700000000000003E-8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="11">
+        <v>1</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E123" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F123" s="11">
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E120" s="11"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="11"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C121" s="1">
-        <v>1</v>
-      </c>
-      <c r="D121" s="1">
-        <v>292</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" s="1">
-        <v>46.853848333333332</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C122" s="1">
-        <v>1</v>
-      </c>
-      <c r="D122" s="1">
-        <v>292</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" s="1">
-        <v>-124.95838333333333</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C123" s="1">
-        <v>1</v>
-      </c>
-      <c r="D123" s="1">
-        <v>292</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E124" s="11"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="B125" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
       </c>
       <c r="D125" s="1">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>5</v>
@@ -3998,18 +3982,18 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
       </c>
       <c r="D126" s="1">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>6</v>
@@ -4018,121 +4002,98 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
       </c>
       <c r="D127" s="1">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E128" s="11"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
       </c>
       <c r="D129" s="1">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F129" s="1">
-        <v>217</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46.853848333333332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
       </c>
       <c r="D130" s="1">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="F130" s="1">
-        <v>240</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-124.95838333333333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
       </c>
       <c r="D131" s="1">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F131" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C132" s="1">
-        <v>1</v>
-      </c>
-      <c r="D132" s="1">
-        <v>263</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F132" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E132" s="11"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
@@ -4141,18 +4102,21 @@
         <v>263</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="F133" s="1">
+        <v>217</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -4161,18 +4125,21 @@
         <v>263</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F134" s="1">
+        <v>240</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
@@ -4180,159 +4147,159 @@
       <c r="D135" s="1">
         <v>263</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E135" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>263</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>51</v>
+      <c r="D137" s="1">
+        <v>263</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>52</v>
+      <c r="D138" s="1">
+        <v>263</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="1">
+        <v>263</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C141" s="11">
-        <v>1</v>
-      </c>
-      <c r="D141" s="11">
-        <v>17122</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" s="11">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" s="11">
-        <v>1</v>
-      </c>
-      <c r="D142" s="11">
-        <v>17122</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F142" s="11">
-        <v>46.853848333333332</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C143" s="11">
-        <v>1</v>
-      </c>
-      <c r="D143" s="11">
-        <v>17122</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" s="11">
-        <v>-124.95838333333333</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144" s="11">
-        <v>1</v>
-      </c>
-      <c r="D144" s="11">
-        <v>17122</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F144" s="11">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C145" s="11">
         <v>1</v>
@@ -4341,18 +4308,18 @@
         <v>17122</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F145" s="11">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C146" s="11">
         <v>1</v>
@@ -4361,18 +4328,18 @@
         <v>17122</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F146" s="11">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>46.853848333333332</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C147" s="11">
         <v>1</v>
@@ -4381,99 +4348,99 @@
         <v>17122</v>
       </c>
       <c r="E147" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" s="11">
+        <v>-124.95838333333333</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C148" s="11">
+        <v>1</v>
+      </c>
+      <c r="D148" s="11">
+        <v>17122</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" s="11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C149" s="11">
+        <v>1</v>
+      </c>
+      <c r="D149" s="11">
+        <v>17122</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F149" s="11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C150" s="11">
+        <v>1</v>
+      </c>
+      <c r="D150" s="11">
+        <v>17122</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F150" s="11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" s="11">
+        <v>1</v>
+      </c>
+      <c r="D151" s="11">
+        <v>17122</v>
+      </c>
+      <c r="E151" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F147" s="11">
+      <c r="F151" s="11">
         <v>0.45</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C149" s="1">
-        <v>1</v>
-      </c>
-      <c r="D149" s="1">
-        <v>18978</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F149" s="1">
-        <v>542000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C150" s="1">
-        <v>1</v>
-      </c>
-      <c r="D150" s="1">
-        <v>18978</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F150" s="1">
-        <v>46.853848333333332</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C151" s="1">
-        <v>1</v>
-      </c>
-      <c r="D151" s="1">
-        <v>18978</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" s="1">
-        <v>-124.95838333333333</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C152" s="1">
-        <v>1</v>
-      </c>
-      <c r="D152" s="1">
-        <v>18978</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F152" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
@@ -4482,18 +4449,18 @@
         <v>18978</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F153" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+        <v>542000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
@@ -4502,18 +4469,18 @@
         <v>18978</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F154" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46.853848333333332</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C155" s="1">
         <v>1</v>
@@ -4522,784 +4489,864 @@
         <v>18978</v>
       </c>
       <c r="E155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" s="1">
+        <v>-124.95838333333333</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1">
+        <v>18978</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <v>18978</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <v>18978</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1">
+        <v>18978</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F159" s="1">
         <v>0.45</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-    </row>
-    <row r="157" spans="1:6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A157" s="11" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+    </row>
+    <row r="161" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C157" s="11">
+      <c r="B161" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161" s="11">
         <v>1</v>
       </c>
-      <c r="D157" s="11">
+      <c r="D161" s="11">
         <v>11710</v>
       </c>
-      <c r="E157" s="11" t="s">
+      <c r="E161" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F157" s="24">
+      <c r="F161" s="24">
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="158" spans="1:6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A158" s="11" t="s">
+    <row r="162" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B158" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C158" s="11">
+      <c r="B162" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" s="11">
         <v>1</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D162" s="11">
         <v>11710</v>
       </c>
-      <c r="E158" s="11" t="s">
+      <c r="E162" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F158" s="24">
+      <c r="F162" s="24">
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="159" spans="1:6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+    <row r="163" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C160" s="1">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F160" s="1">
-        <v>-5916.308</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C161" s="1">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F161" s="1">
-        <v>195.72069999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C162" s="1">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F162" s="1">
-        <v>16601.59</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C163" s="1">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F163" s="1">
-        <v>6.8552000000000002E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F164" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-5916.308</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F165" s="1">
-        <v>0</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+        <v>195.72069999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F166" s="1">
-        <v>-0.40789999999999998</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16601.59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C167" s="1">
         <v>1</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F167" s="1">
-        <v>1</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6.8552000000000002E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C168" s="1">
         <v>1</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F168" s="1">
-        <v>30.066870000000002</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F169" s="1">
-        <v>0.96473500000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C170" s="1">
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F170" s="1">
-        <v>43.283189999999998</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-0.40789999999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C171" s="1">
         <v>1</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F171" s="1">
-        <v>92.590029999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F172" s="1">
-        <v>5.8215640000000004</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30.066870000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F173" s="1">
-        <v>-3880.3739999999998</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.96473500000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F174" s="1">
-        <v>-9063.1530000000002</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43.283189999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C175" s="1">
         <v>1</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F175" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="11" t="s">
+        <v>92.590029999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B176" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C176" s="11">
+      <c r="C176" s="1">
         <v>1</v>
       </c>
-      <c r="D176" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F176" s="11">
-        <v>838.8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="11" t="s">
+      <c r="D176" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F176" s="1">
+        <v>5.8215640000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B177" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C177" s="11">
+      <c r="C177" s="1">
         <v>1</v>
       </c>
-      <c r="D177" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E177" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F177" s="11">
-        <v>12582.9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D177" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F177" s="1">
+        <v>-3880.3739999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F178" s="1">
+        <v>-9063.1530000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C179" s="1">
         <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F179" s="1">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C180" s="11">
         <v>1</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F180" s="1">
-        <v>0.73519999999999996</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C181" s="1">
+      <c r="D180" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F180" s="11">
+        <v>838.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C181" s="11">
         <v>1</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F181" s="1">
-        <v>-1.5599000000000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C182" s="1">
-        <v>1</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F182" s="1">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D181" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F181" s="11">
+        <v>12582.9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C183" s="1">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F183" s="1">
-        <v>19706</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C184" s="1">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F184" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.73519999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C185" s="1">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F185" s="1">
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-1.5599000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C186" s="1">
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F186" s="1">
-        <v>44327</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C188" s="11">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C187" s="1">
         <v>1</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D187" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G188" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B190" s="11" t="s">
-        <v>145</v>
+      <c r="E187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" s="1">
+        <v>19706</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F188" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" s="1">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C190" s="1">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C192" s="1">
+        <v>157</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F190" s="1">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C192" s="11">
         <v>1</v>
       </c>
-      <c r="D192" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="G192" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C193" s="1">
-        <v>1</v>
-      </c>
-      <c r="D193" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="G193" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>145</v>
+      <c r="D192" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G192" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="C194" s="1">
         <v>1</v>
       </c>
-      <c r="D194" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="G194" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D195" s="23"/>
-      <c r="G195" s="23"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D194" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C196" s="1">
         <v>1</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G196" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C197" s="1">
         <v>1</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G197" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C198" s="1">
         <v>1</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G198" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C199" s="1">
-        <v>1</v>
-      </c>
-      <c r="D199" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="G199" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D199" s="23"/>
+      <c r="G199" s="23"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G200" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C201" s="1">
         <v>1</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G201" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G202" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D203" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G203" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C204" s="1">
+        <v>1</v>
+      </c>
+      <c r="D204" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G204" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1</v>
+      </c>
+      <c r="D205" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G205" s="23" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D190 D160:D177 D137:D139 D17:D18 D20:D21 D23:D24" numberStoredAsText="1"/>
+    <ignoredError sqref="D194 D164:D181 D141:D143 D21:D22 D24:D25 D27:D28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5312,14 +5359,14 @@
       <selection activeCell="C10" sqref="A1:AM80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="26">
         <v>-3.0170000000000002E-3</v>
       </c>
@@ -5438,7 +5485,7 @@
         <v>1.9599999999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>-2.6199999999999999E-3</v>
       </c>
@@ -5557,7 +5604,7 @@
         <v>9.59E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>1.08E-3</v>
       </c>
@@ -5676,7 +5723,7 @@
         <v>-5.1060000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>5.2709999999999996E-3</v>
       </c>
@@ -5795,7 +5842,7 @@
         <v>-8.9440000000000006E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>8.0079999999999995E-3</v>
       </c>
@@ -5914,7 +5961,7 @@
         <v>-1.0677000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>9.8279999999999999E-3</v>
       </c>
@@ -6033,7 +6080,7 @@
         <v>-1.0921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>1.0015E-2</v>
       </c>
@@ -6152,7 +6199,7 @@
         <v>-1.1219E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -6271,7 +6318,7 @@
         <v>-1.0883E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>6.6360000000000004E-3</v>
       </c>
@@ -6390,7 +6437,7 @@
         <v>-8.6560000000000005E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>6.4409999999999997E-3</v>
       </c>
@@ -6509,7 +6556,7 @@
         <v>-8.7069999999999995E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>5.836E-3</v>
       </c>
@@ -6628,7 +6675,7 @@
         <v>-8.1600000000000006E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>4.4489999999999998E-3</v>
       </c>
@@ -6747,7 +6794,7 @@
         <v>-7.0600000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>3.0730000000000002E-3</v>
       </c>
@@ -6866,7 +6913,7 @@
         <v>-6.2220000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>2.7160000000000001E-3</v>
       </c>
@@ -6985,7 +7032,7 @@
         <v>-5.0679999999999996E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>2.5219999999999999E-3</v>
       </c>
@@ -7104,7 +7151,7 @@
         <v>-4.8349999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>1.5009999999999999E-3</v>
       </c>
@@ -7223,7 +7270,7 @@
         <v>-4.0229999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>1.4920000000000001E-3</v>
       </c>
@@ -7342,7 +7389,7 @@
         <v>-3.408E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>6.1899999999999998E-4</v>
       </c>
@@ -7461,7 +7508,7 @@
         <v>-3.042E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>3.2200000000000002E-4</v>
       </c>
@@ -7580,7 +7627,7 @@
         <v>-2.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>-1.03E-4</v>
       </c>
@@ -7699,7 +7746,7 @@
         <v>-2.0019999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>-3.6400000000000001E-4</v>
       </c>
@@ -7818,7 +7865,7 @@
         <v>-1.7129999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>-1.263E-3</v>
       </c>
@@ -7937,7 +7984,7 @@
         <v>-1.1460000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>-1.1069999999999999E-3</v>
       </c>
@@ -8056,7 +8103,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>-1.511E-3</v>
       </c>
@@ -8175,7 +8222,7 @@
         <v>-4.7100000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>-1.779E-3</v>
       </c>
@@ -8294,7 +8341,7 @@
         <v>-2.8400000000000002E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>-2.019E-3</v>
       </c>
@@ -8413,7 +8460,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>-2.3530000000000001E-3</v>
       </c>
@@ -8532,7 +8579,7 @@
         <v>1.76E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>-2.8389999999999999E-3</v>
       </c>
@@ -8651,7 +8698,7 @@
         <v>3.8499999999999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>-2.944E-3</v>
       </c>
@@ -8770,7 +8817,7 @@
         <v>5.2999999999999998E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>-3.2469999999999999E-3</v>
       </c>
@@ -8889,7 +8936,7 @@
         <v>8.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>-3.5969999999999999E-3</v>
       </c>
@@ -9008,7 +9055,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>-3.6319999999999998E-3</v>
       </c>
@@ -9127,7 +9174,7 @@
         <v>1.049E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>-3.9300000000000003E-3</v>
       </c>
@@ -9246,7 +9293,7 @@
         <v>1.078E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>-3.986E-3</v>
       </c>
@@ -9365,7 +9412,7 @@
         <v>1.2489999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>-3.8379999999999998E-3</v>
       </c>
@@ -9484,7 +9531,7 @@
         <v>1.2800000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>-3.6819999999999999E-3</v>
       </c>
@@ -9603,7 +9650,7 @@
         <v>1.2539999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>-3.4459999999999998E-3</v>
       </c>
@@ -9722,7 +9769,7 @@
         <v>1.1230000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>-3.3830000000000002E-3</v>
       </c>
@@ -9841,7 +9888,7 @@
         <v>1.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>-3.4870000000000001E-3</v>
       </c>
@@ -9960,7 +10007,7 @@
         <v>9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>-3.5230000000000001E-3</v>
       </c>
@@ -10079,7 +10126,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>-3.5400000000000002E-3</v>
       </c>
@@ -10198,7 +10245,7 @@
         <v>4.4099999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>-3.5260000000000001E-3</v>
       </c>
@@ -10317,7 +10364,7 @@
         <v>2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>-3.1700000000000001E-3</v>
       </c>
@@ -10436,7 +10483,7 @@
         <v>-6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>-3.026E-3</v>
       </c>
@@ -10555,7 +10602,7 @@
         <v>-3.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>-3.4710000000000001E-3</v>
       </c>
@@ -10674,7 +10721,7 @@
         <v>-6.8900000000000005E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>-3.5869999999999999E-3</v>
       </c>
@@ -10793,7 +10840,7 @@
         <v>-5.4100000000000003E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>-3.6579999999999998E-3</v>
       </c>
@@ -10912,7 +10959,7 @@
         <v>-5.0900000000000001E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <v>-3.722E-3</v>
       </c>
@@ -11031,7 +11078,7 @@
         <v>-4.5300000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>-3.8739999999999998E-3</v>
       </c>
@@ -11150,7 +11197,7 @@
         <v>-3.77E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>-3.9579999999999997E-3</v>
       </c>
@@ -11269,7 +11316,7 @@
         <v>-2.6499999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
         <v>-4.1960000000000001E-3</v>
       </c>
@@ -11388,7 +11435,7 @@
         <v>-2.3800000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
         <v>-4.326E-3</v>
       </c>
@@ -11507,7 +11554,7 @@
         <v>-1.8699999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="26">
         <v>-4.3759999999999997E-3</v>
       </c>
@@ -11626,7 +11673,7 @@
         <v>-1.4899999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="26">
         <v>-4.568E-3</v>
       </c>
@@ -11745,7 +11792,7 @@
         <v>-1.7100000000000001E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="26">
         <v>-4.7999999999999996E-3</v>
       </c>
@@ -11864,7 +11911,7 @@
         <v>-6.8999999999999997E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="26">
         <v>-4.9020000000000001E-3</v>
       </c>
@@ -11983,7 +12030,7 @@
         <v>-3.4E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="26">
         <v>-5.0000000000000001E-3</v>
       </c>
@@ -12102,7 +12149,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>-5.2339999999999999E-3</v>
       </c>
@@ -12221,7 +12268,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="26">
         <v>-5.4559999999999999E-3</v>
       </c>
@@ -12340,7 +12387,7 @@
         <v>1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
         <v>-5.6379999999999998E-3</v>
       </c>
@@ -12459,7 +12506,7 @@
         <v>2.5599999999999999E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
         <v>-5.8609999999999999E-3</v>
       </c>
@@ -12578,7 +12625,7 @@
         <v>3.2899999999999997E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>-6.1349999999999998E-3</v>
       </c>
@@ -12697,7 +12744,7 @@
         <v>3.7500000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
         <v>-6.4689999999999999E-3</v>
       </c>
@@ -12816,7 +12863,7 @@
         <v>4.9200000000000003E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="26">
         <v>-6.6519999999999999E-3</v>
       </c>
@@ -12935,7 +12982,7 @@
         <v>5.13E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
         <v>-6.7099999999999998E-3</v>
       </c>
@@ -13054,7 +13101,7 @@
         <v>5.2800000000000004E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
         <v>-6.6109999999999997E-3</v>
       </c>
@@ -13173,7 +13220,7 @@
         <v>5.2400000000000005E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="26">
         <v>-6.3990000000000002E-3</v>
       </c>
@@ -13292,7 +13339,7 @@
         <v>4.86E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="26">
         <v>-6.221E-3</v>
       </c>
@@ -13411,7 +13458,7 @@
         <v>4.8099999999999998E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="26">
         <v>-6.0130000000000001E-3</v>
       </c>
@@ -13530,7 +13577,7 @@
         <v>4.08E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="26">
         <v>-5.9649999999999998E-3</v>
       </c>
@@ -13649,7 +13696,7 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="26">
         <v>-5.7219999999999997E-3</v>
       </c>
@@ -13768,7 +13815,7 @@
         <v>1.21E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="26">
         <v>-5.3639999999999998E-3</v>
       </c>
@@ -13887,7 +13934,7 @@
         <v>-2.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="26">
         <v>-5.1729999999999996E-3</v>
       </c>
@@ -14006,7 +14053,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
         <v>-5.2779999999999997E-3</v>
       </c>
@@ -14125,7 +14172,7 @@
         <v>-2.33E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>-5.5690000000000002E-3</v>
       </c>
@@ -14244,7 +14291,7 @@
         <v>-3.4699999999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
         <v>-6.0959999999999999E-3</v>
       </c>
@@ -14363,7 +14410,7 @@
         <v>-4.1800000000000002E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>-6.2989999999999999E-3</v>
       </c>
@@ -14482,7 +14529,7 @@
         <v>-3.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
         <v>-6.6340000000000001E-3</v>
       </c>
@@ -14601,7 +14648,7 @@
         <v>-5.0799999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>-7.0619999999999997E-3</v>
       </c>
@@ -14720,7 +14767,7 @@
         <v>-4.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
         <v>-6.5680000000000001E-3</v>
       </c>
@@ -14839,16 +14886,16 @@
         <v>-4.5100000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
     </row>
   </sheetData>
@@ -14864,15 +14911,15 @@
       <selection activeCell="AA65" sqref="A1:AM80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="26">
         <v>1.1096E-2</v>
       </c>
@@ -14991,7 +15038,7 @@
         <v>-7.0870000000000004E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1.9990000000000001E-2</v>
       </c>
@@ -15110,7 +15157,7 @@
         <v>-5.2059999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>1.8069000000000002E-2</v>
       </c>
@@ -15229,7 +15276,7 @@
         <v>-4.4130000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>1.5543E-2</v>
       </c>
@@ -15348,7 +15395,7 @@
         <v>-3.1679999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1.5062000000000001E-2</v>
       </c>
@@ -15467,7 +15514,7 @@
         <v>-2.2780000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>1.3579000000000001E-2</v>
       </c>
@@ -15586,7 +15633,7 @@
         <v>-1.792E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>1.1405999999999999E-2</v>
       </c>
@@ -15705,7 +15752,7 @@
         <v>-1.2329999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>1.0219000000000001E-2</v>
       </c>
@@ -15824,7 +15871,7 @@
         <v>-1.3810000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>1.0685999999999999E-2</v>
       </c>
@@ -15943,7 +15990,7 @@
         <v>-1.951E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>1.0251E-2</v>
       </c>
@@ -16062,7 +16109,7 @@
         <v>-1.859E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>9.4439999999999993E-3</v>
       </c>
@@ -16181,7 +16228,7 @@
         <v>-7.9799999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>8.8450000000000004E-3</v>
       </c>
@@ -16300,7 +16347,7 @@
         <v>-6.3900000000000003E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>9.11E-3</v>
       </c>
@@ -16419,7 +16466,7 @@
         <v>-1.0269999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>9.3200000000000002E-3</v>
       </c>
@@ -16538,7 +16585,7 @@
         <v>-6.69E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>8.7039999999999999E-3</v>
       </c>
@@ -16657,7 +16704,7 @@
         <v>-1.26E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>8.9110000000000005E-3</v>
       </c>
@@ -16776,7 +16823,7 @@
         <v>5.8299999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>7.953E-3</v>
       </c>
@@ -16895,7 +16942,7 @@
         <v>8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>9.7330000000000003E-3</v>
       </c>
@@ -17014,7 +17061,7 @@
         <v>2.0100000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>1.0602E-2</v>
       </c>
@@ -17133,7 +17180,7 @@
         <v>1.2300000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>9.8809999999999992E-3</v>
       </c>
@@ -17252,7 +17299,7 @@
         <v>7.3800000000000005E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>1.0196999999999999E-2</v>
       </c>
@@ -17371,7 +17418,7 @@
         <v>1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>9.9019999999999993E-3</v>
       </c>
@@ -17490,7 +17537,7 @@
         <v>1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>1.0081E-2</v>
       </c>
@@ -17609,7 +17656,7 @@
         <v>7.9699999999999997E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>1.1207999999999999E-2</v>
       </c>
@@ -17728,7 +17775,7 @@
         <v>2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>1.0865E-2</v>
       </c>
@@ -17847,7 +17894,7 @@
         <v>1.209E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>9.8289999999999992E-3</v>
       </c>
@@ -17966,7 +18013,7 @@
         <v>2.0600000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>9.6480000000000003E-3</v>
       </c>
@@ -18085,7 +18132,7 @@
         <v>2.2420000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>9.7619999999999998E-3</v>
       </c>
@@ -18204,7 +18251,7 @@
         <v>1.5870000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>1.0779E-2</v>
       </c>
@@ -18323,7 +18370,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>1.125E-2</v>
       </c>
@@ -18442,7 +18489,7 @@
         <v>6.87E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>1.0626E-2</v>
       </c>
@@ -18561,7 +18608,7 @@
         <v>1.549E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>1.0435E-2</v>
       </c>
@@ -18680,7 +18727,7 @@
         <v>2.2690000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>9.7730000000000004E-3</v>
       </c>
@@ -18799,7 +18846,7 @@
         <v>2.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>1.009E-2</v>
       </c>
@@ -18918,7 +18965,7 @@
         <v>1.271E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>1.1586000000000001E-2</v>
       </c>
@@ -19037,7 +19084,7 @@
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>1.2154999999999999E-2</v>
       </c>
@@ -19156,7 +19203,7 @@
         <v>-1.2300000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>1.2125E-2</v>
       </c>
@@ -19275,7 +19322,7 @@
         <v>9.7999999999999997E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>1.2177E-2</v>
       </c>
@@ -19394,7 +19441,7 @@
         <v>7.94E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>1.1487000000000001E-2</v>
       </c>
@@ -19513,7 +19560,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>1.2144E-2</v>
       </c>
@@ -19632,7 +19679,7 @@
         <v>4.4499999999999997E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>1.3206000000000001E-2</v>
       </c>
@@ -19751,7 +19798,7 @@
         <v>-8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>1.4567E-2</v>
       </c>
@@ -19870,7 +19917,7 @@
         <v>-2.1749999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>1.5851000000000001E-2</v>
       </c>
@@ -19989,7 +20036,7 @@
         <v>-3.0730000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>1.6566000000000001E-2</v>
       </c>
@@ -20108,7 +20155,7 @@
         <v>-3.055E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>1.2205000000000001E-2</v>
       </c>
@@ -20227,7 +20274,7 @@
         <v>-1.9849999999999998E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>1.1498E-2</v>
       </c>
@@ -20346,7 +20393,7 @@
         <v>-1.047E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>1.0806E-2</v>
       </c>
@@ -20465,7 +20512,7 @@
         <v>-5.2099999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <v>1.0401000000000001E-2</v>
       </c>
@@ -20584,7 +20631,7 @@
         <v>-7.36E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>1.0942E-2</v>
       </c>
@@ -20703,7 +20750,7 @@
         <v>-1.6639999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>1.1664000000000001E-2</v>
       </c>
@@ -20822,7 +20869,7 @@
         <v>-2.627E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
         <v>1.2312999999999999E-2</v>
       </c>
@@ -20941,7 +20988,7 @@
         <v>-3.1719999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
         <v>1.2456999999999999E-2</v>
       </c>
@@ -21060,7 +21107,7 @@
         <v>-2.9260000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="26">
         <v>1.2045999999999999E-2</v>
       </c>
@@ -21179,7 +21226,7 @@
         <v>-2.2109999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="26">
         <v>1.0963000000000001E-2</v>
       </c>
@@ -21298,7 +21345,7 @@
         <v>-1.176E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="26">
         <v>1.0317E-2</v>
       </c>
@@ -21417,7 +21464,7 @@
         <v>-4.9700000000000005E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="26">
         <v>9.8410000000000008E-3</v>
       </c>
@@ -21536,7 +21583,7 @@
         <v>-4.4099999999999999E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="26">
         <v>9.8060000000000005E-3</v>
       </c>
@@ -21655,7 +21702,7 @@
         <v>-1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>1.0303E-2</v>
       </c>
@@ -21774,7 +21821,7 @@
         <v>-1.9530000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="26">
         <v>1.0918000000000001E-2</v>
       </c>
@@ -21893,7 +21940,7 @@
         <v>-2.8029999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
         <v>1.1409000000000001E-2</v>
       </c>
@@ -22012,7 +22059,7 @@
         <v>-3.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
         <v>1.1468000000000001E-2</v>
       </c>
@@ -22131,7 +22178,7 @@
         <v>-3.1159999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>1.1023E-2</v>
       </c>
@@ -22250,7 +22297,7 @@
         <v>-2.4650000000000002E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
         <v>1.0685E-2</v>
       </c>
@@ -22369,7 +22416,7 @@
         <v>-1.5579999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="26">
         <v>9.8490000000000001E-3</v>
       </c>
@@ -22488,7 +22535,7 @@
         <v>-7.9699999999999997E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
         <v>9.3880000000000005E-3</v>
       </c>
@@ -22607,7 +22654,7 @@
         <v>-2.7099999999999997E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
         <v>9.1420000000000008E-3</v>
       </c>
@@ -22726,7 +22773,7 @@
         <v>-3.8200000000000002E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="26">
         <v>9.5250000000000005E-3</v>
       </c>
@@ -22845,7 +22892,7 @@
         <v>-1.0039999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="26">
         <v>1.0286E-2</v>
       </c>
@@ -22964,7 +23011,7 @@
         <v>-1.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="26">
         <v>1.1141E-2</v>
       </c>
@@ -23083,7 +23130,7 @@
         <v>-2.996E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="26">
         <v>1.2522E-2</v>
       </c>
@@ -23202,7 +23249,7 @@
         <v>-3.9329999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="26">
         <v>1.3295E-2</v>
       </c>
@@ -23321,7 +23368,7 @@
         <v>-4.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="26">
         <v>1.3893000000000001E-2</v>
       </c>
@@ -23440,7 +23487,7 @@
         <v>-4.9319999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="26">
         <v>1.4447E-2</v>
       </c>
@@ -23559,7 +23606,7 @@
         <v>-4.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
         <v>1.4303E-2</v>
       </c>
@@ -23678,7 +23725,7 @@
         <v>-4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>1.4043999999999999E-2</v>
       </c>
@@ -23797,7 +23844,7 @@
         <v>-3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
         <v>1.3542E-2</v>
       </c>
@@ -23916,7 +23963,7 @@
         <v>-3.2629999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>1.2692E-2</v>
       </c>
@@ -24035,7 +24082,7 @@
         <v>-2.8670000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
         <v>1.2685999999999999E-2</v>
       </c>
@@ -24154,7 +24201,7 @@
         <v>-2.7139999999999998E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>1.2317E-2</v>
       </c>
@@ -24273,7 +24320,7 @@
         <v>-2.5370000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
         <v>1.1916E-2</v>
       </c>
@@ -24392,13 +24439,13 @@
         <v>-2.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
     </row>
   </sheetData>
@@ -24414,9 +24461,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-1.217E-3</v>
       </c>
@@ -24532,7 +24579,7 @@
         <v>5.9250999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1.6122999999999998E-2</v>
       </c>
@@ -24648,7 +24695,7 @@
         <v>5.2925E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-2.96E-3</v>
       </c>
@@ -24764,7 +24811,7 @@
         <v>3.1683999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.1277999999999998E-2</v>
       </c>
@@ -24880,7 +24927,7 @@
         <v>1.0460000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.9567999999999999E-2</v>
       </c>
@@ -24996,7 +25043,7 @@
         <v>-6.4720000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.2198000000000001E-2</v>
       </c>
@@ -25112,7 +25159,7 @@
         <v>-1.9453000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.0463000000000003E-2</v>
       </c>
@@ -25228,7 +25275,7 @@
         <v>-2.5121999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.9880999999999997E-2</v>
       </c>
@@ -25344,7 +25391,7 @@
         <v>-2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.8949000000000001E-2</v>
       </c>
@@ -25460,7 +25507,7 @@
         <v>-2.793E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.6152000000000001E-2</v>
       </c>
@@ -25576,7 +25623,7 @@
         <v>-2.6713000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.1274E-2</v>
       </c>
@@ -25692,7 +25739,7 @@
         <v>-2.5260000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.9993000000000003E-2</v>
       </c>
@@ -25808,7 +25855,7 @@
         <v>-2.4146000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.6747999999999998E-2</v>
       </c>
@@ -25924,7 +25971,7 @@
         <v>-2.2589000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4.5406000000000002E-2</v>
       </c>
@@ -26040,7 +26087,7 @@
         <v>-2.1475000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4.4385000000000001E-2</v>
       </c>
@@ -26156,7 +26203,7 @@
         <v>-2.0431999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4.2183999999999999E-2</v>
       </c>
@@ -26272,7 +26319,7 @@
         <v>-1.9682999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4.0542000000000002E-2</v>
       </c>
@@ -26388,7 +26435,7 @@
         <v>-1.8891000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.959E-2</v>
       </c>
@@ -26504,7 +26551,7 @@
         <v>-1.8186999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.7962000000000003E-2</v>
       </c>
@@ -26620,7 +26667,7 @@
         <v>-1.7673999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.7345000000000003E-2</v>
       </c>
@@ -26736,7 +26783,7 @@
         <v>-1.7127E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.5869999999999999E-2</v>
       </c>
@@ -26852,7 +26899,7 @@
         <v>-1.6677000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3.5033000000000002E-2</v>
       </c>
@@ -26968,7 +27015,7 @@
         <v>-1.6188000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.3671E-2</v>
       </c>
@@ -27084,7 +27131,7 @@
         <v>-1.5469E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.3402000000000001E-2</v>
       </c>
@@ -27200,7 +27247,7 @@
         <v>-1.524E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.2177999999999998E-2</v>
       </c>
@@ -27316,7 +27363,7 @@
         <v>-1.4589E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3.1132E-2</v>
       </c>
@@ -27432,7 +27479,7 @@
         <v>-1.3883E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.0834E-2</v>
       </c>
@@ -27548,7 +27595,7 @@
         <v>-1.3186E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.9805000000000002E-2</v>
       </c>
@@ -27664,7 +27711,7 @@
         <v>-1.2496E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.9288000000000002E-2</v>
       </c>
@@ -27780,7 +27827,7 @@
         <v>-1.1686E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.8648E-2</v>
       </c>
@@ -27896,7 +27943,7 @@
         <v>-1.0984000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.7969999999999998E-2</v>
       </c>
@@ -28012,7 +28059,7 @@
         <v>-1.0167000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.7269000000000002E-2</v>
       </c>
@@ -28128,7 +28175,7 @@
         <v>-9.4359999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.6849999999999999E-2</v>
       </c>
@@ -28244,7 +28291,7 @@
         <v>-8.6689999999999996E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.6512000000000001E-2</v>
       </c>
@@ -28360,7 +28407,7 @@
         <v>-8.201E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.5888999999999999E-2</v>
       </c>
@@ -28476,7 +28523,7 @@
         <v>-7.5820000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.5593000000000001E-2</v>
       </c>
@@ -28592,7 +28639,7 @@
         <v>-7.1459999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -28708,7 +28755,7 @@
         <v>-6.8199999999999997E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2.4955999999999999E-2</v>
       </c>
@@ -28824,7 +28871,7 @@
         <v>-6.5339999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2.4978E-2</v>
       </c>
@@ -28940,7 +28987,7 @@
         <v>-6.4850000000000003E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.4989000000000001E-2</v>
       </c>
@@ -29056,7 +29103,7 @@
         <v>-6.3990000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.4895E-2</v>
       </c>
@@ -29172,7 +29219,7 @@
         <v>-6.4419999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.4344000000000001E-2</v>
       </c>
@@ -29288,7 +29335,7 @@
         <v>-6.489E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2.2498000000000001E-2</v>
       </c>
@@ -29404,7 +29451,7 @@
         <v>-8.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.2270000000000002E-2</v>
       </c>
@@ -29520,7 +29567,7 @@
         <v>-7.9749999999999995E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2.1975999999999999E-2</v>
       </c>
@@ -29636,7 +29683,7 @@
         <v>-7.6290000000000004E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2.1724E-2</v>
       </c>
@@ -29752,7 +29799,7 @@
         <v>-7.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.1316000000000002E-2</v>
       </c>
@@ -29868,7 +29915,7 @@
         <v>-6.9160000000000003E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.0830999999999999E-2</v>
       </c>
@@ -29984,7 +30031,7 @@
         <v>-6.5890000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2.0586E-2</v>
       </c>
@@ -30100,7 +30147,7 @@
         <v>-6.0029999999999997E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.0147000000000002E-2</v>
       </c>
@@ -30216,7 +30263,7 @@
         <v>-5.8780000000000004E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.9605999999999998E-2</v>
       </c>
@@ -30332,7 +30379,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.9136E-2</v>
       </c>
@@ -30448,7 +30495,7 @@
         <v>-5.2030000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.8865E-2</v>
       </c>
@@ -30564,7 +30611,7 @@
         <v>-5.1460000000000004E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.8439000000000001E-2</v>
       </c>
@@ -30680,7 +30727,7 @@
         <v>-5.0990000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.8269000000000001E-2</v>
       </c>
@@ -30796,7 +30843,7 @@
         <v>-5.0689999999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.8076999999999999E-2</v>
       </c>
@@ -30912,7 +30959,7 @@
         <v>-5.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.7874000000000001E-2</v>
       </c>
@@ -31028,7 +31075,7 @@
         <v>-5.2430000000000003E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.7760999999999999E-2</v>
       </c>
@@ -31144,7 +31191,7 @@
         <v>-5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.7892000000000002E-2</v>
       </c>
@@ -31260,7 +31307,7 @@
         <v>-5.535E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.7656999999999999E-2</v>
       </c>
@@ -31376,7 +31423,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.7566999999999999E-2</v>
       </c>
@@ -31492,7 +31539,7 @@
         <v>-5.4289999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.7226000000000002E-2</v>
       </c>
@@ -31608,7 +31655,7 @@
         <v>-5.6109999999999997E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.7124E-2</v>
       </c>
@@ -31724,7 +31771,7 @@
         <v>-5.5909999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.7017000000000001E-2</v>
       </c>
@@ -31840,7 +31887,7 @@
         <v>-5.7629999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1.6993000000000001E-2</v>
       </c>
@@ -31956,7 +32003,7 @@
         <v>-5.7260000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1.6854000000000001E-2</v>
       </c>
@@ -32072,7 +32119,7 @@
         <v>-5.7409999999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.6847000000000001E-2</v>
       </c>
@@ -32188,7 +32235,7 @@
         <v>-5.6940000000000003E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.6865000000000002E-2</v>
       </c>
@@ -32304,7 +32351,7 @@
         <v>-5.6690000000000004E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.6999E-2</v>
       </c>
@@ -32420,7 +32467,7 @@
         <v>-5.5180000000000003E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.6573000000000001E-2</v>
       </c>
@@ -32536,7 +32583,7 @@
         <v>-5.3369999999999997E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.6441000000000001E-2</v>
       </c>
@@ -32652,7 +32699,7 @@
         <v>-5.1720000000000004E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.6501999999999999E-2</v>
       </c>
@@ -32768,7 +32815,7 @@
         <v>-4.9969999999999997E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.6566000000000001E-2</v>
       </c>
@@ -32884,7 +32931,7 @@
         <v>-4.8919999999999996E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.6815E-2</v>
       </c>
@@ -33000,7 +33047,7 @@
         <v>-4.679E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1.6834999999999999E-2</v>
       </c>
@@ -33116,7 +33163,7 @@
         <v>-4.4840000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1.6635E-2</v>
       </c>
@@ -33232,7 +33279,7 @@
         <v>-4.2709999999999996E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.6372999999999999E-2</v>
       </c>
@@ -33348,7 +33395,7 @@
         <v>-4.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.6570999999999999E-2</v>
       </c>
@@ -33464,7 +33511,7 @@
         <v>-4.0020000000000003E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.6389000000000001E-2</v>
       </c>
@@ -33580,7 +33627,7 @@
         <v>-3.8790000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.6128E-2</v>
       </c>
@@ -33696,7 +33743,7 @@
         <v>-3.8040000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.6001999999999999E-2</v>
       </c>
@@ -33812,7 +33859,7 @@
         <v>-3.7650000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.6177E-2</v>
       </c>
@@ -33928,7 +33975,7 @@
         <v>-3.8379999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.6069E-2</v>
       </c>
@@ -34044,7 +34091,7 @@
         <v>-3.836E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1.6045E-2</v>
       </c>
@@ -34160,7 +34207,7 @@
         <v>-4.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1.6611000000000001E-2</v>
       </c>
@@ -34289,9 +34336,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>4.4850000000000001E-2</v>
       </c>
@@ -34407,7 +34454,7 @@
         <v>-4.3519000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3.9183999999999997E-2</v>
       </c>
@@ -34523,7 +34570,7 @@
         <v>-3.7317000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.9572999999999999E-2</v>
       </c>
@@ -34639,7 +34686,7 @@
         <v>-3.3651E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.9889E-2</v>
       </c>
@@ -34755,7 +34802,7 @@
         <v>-3.2308000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.8782E-2</v>
       </c>
@@ -34871,7 +34918,7 @@
         <v>-3.0528E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.336E-2</v>
       </c>
@@ -34987,7 +35034,7 @@
         <v>-2.7786000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8.3269999999999993E-3</v>
       </c>
@@ -35103,7 +35150,7 @@
         <v>-2.5936000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.2279999999999992E-3</v>
       </c>
@@ -35219,7 +35266,7 @@
         <v>-2.4084999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.0349999999999996E-3</v>
       </c>
@@ -35335,7 +35382,7 @@
         <v>-2.2527999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.7910000000000001E-3</v>
       </c>
@@ -35451,7 +35498,7 @@
         <v>-2.2658999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.5459999999999997E-3</v>
       </c>
@@ -35567,7 +35614,7 @@
         <v>-2.1316000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.3299999999999996E-3</v>
       </c>
@@ -35683,7 +35730,7 @@
         <v>-2.027E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.1689999999999999E-3</v>
       </c>
@@ -35799,7 +35846,7 @@
         <v>-1.9577000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4.045E-3</v>
       </c>
@@ -35915,7 +35962,7 @@
         <v>-1.7666000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.2620000000000001E-3</v>
       </c>
@@ -36031,7 +36078,7 @@
         <v>-1.7545000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.5799999999999998E-4</v>
       </c>
@@ -36147,7 +36194,7 @@
         <v>-1.6750999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.8099999999999999E-4</v>
       </c>
@@ -36263,7 +36310,7 @@
         <v>-1.5461000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-2.052E-3</v>
       </c>
@@ -36379,7 +36426,7 @@
         <v>-1.5084E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-2.333E-3</v>
       </c>
@@ -36495,7 +36542,7 @@
         <v>-1.4002000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.1670000000000001E-3</v>
       </c>
@@ -36611,7 +36658,7 @@
         <v>-1.2987E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-4.2989999999999999E-3</v>
       </c>
@@ -36727,7 +36774,7 @@
         <v>-1.2781000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-2.7460000000000002E-3</v>
       </c>
@@ -36843,7 +36890,7 @@
         <v>-1.1978000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-4.0660000000000002E-3</v>
       </c>
@@ -36959,7 +37006,7 @@
         <v>-1.1528999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-3.4299999999999999E-3</v>
       </c>
@@ -37075,7 +37122,7 @@
         <v>-1.0923E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2.9870000000000001E-3</v>
       </c>
@@ -37191,7 +37238,7 @@
         <v>-1.0501999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3.3969999999999998E-3</v>
       </c>
@@ -37307,7 +37354,7 @@
         <v>-1.0293999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-2.7100000000000002E-3</v>
       </c>
@@ -37423,7 +37470,7 @@
         <v>-9.8399999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-2.5569999999999998E-3</v>
       </c>
@@ -37539,7 +37586,7 @@
         <v>-9.3860000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-2.0509999999999999E-3</v>
       </c>
@@ -37655,7 +37702,7 @@
         <v>-9.5239999999999995E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.1529999999999999E-3</v>
       </c>
@@ -37771,7 +37818,7 @@
         <v>-9.3489999999999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-7.0899999999999999E-4</v>
       </c>
@@ -37887,7 +37934,7 @@
         <v>-9.1979999999999996E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3.3500000000000001E-4</v>
       </c>
@@ -38003,7 +38050,7 @@
         <v>-9.0749999999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.1700000000000001E-4</v>
       </c>
@@ -38119,7 +38166,7 @@
         <v>-9.077E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.68E-4</v>
       </c>
@@ -38235,7 +38282,7 @@
         <v>-8.9750000000000003E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7.3999999999999999E-4</v>
       </c>
@@ -38351,7 +38398,7 @@
         <v>-8.9180000000000006E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.8999999999999999E-4</v>
       </c>
@@ -38467,7 +38514,7 @@
         <v>-8.6619999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-3.77E-4</v>
       </c>
@@ -38583,7 +38630,7 @@
         <v>-8.6339999999999993E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-5.5199999999999997E-4</v>
       </c>
@@ -38699,7 +38746,7 @@
         <v>-8.4720000000000004E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.413E-3</v>
       </c>
@@ -38815,7 +38862,7 @@
         <v>-8.1460000000000005E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.8979999999999999E-3</v>
       </c>
@@ -38931,7 +38978,7 @@
         <v>-8.1770000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-2.1819999999999999E-3</v>
       </c>
@@ -39047,7 +39094,7 @@
         <v>-7.9459999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-2.82E-3</v>
       </c>
@@ -39163,7 +39210,7 @@
         <v>-7.8810000000000009E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-5.8450000000000004E-3</v>
       </c>
@@ -39279,7 +39326,7 @@
         <v>-6.7990000000000004E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-6.1799999999999997E-3</v>
       </c>
@@ -39395,7 +39442,7 @@
         <v>-6.7070000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-6.5389999999999997E-3</v>
       </c>
@@ -39511,7 +39558,7 @@
         <v>-6.6930000000000002E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-6.3860000000000002E-3</v>
       </c>
@@ -39627,7 +39674,7 @@
         <v>-6.8110000000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-6.234E-3</v>
       </c>
@@ -39743,7 +39790,7 @@
         <v>-6.8729999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-5.921E-3</v>
       </c>
@@ -39859,7 +39906,7 @@
         <v>-7.0410000000000004E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-5.2649999999999997E-3</v>
       </c>
@@ -39975,7 +40022,7 @@
         <v>-7.2529999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-4.6709999999999998E-3</v>
       </c>
@@ -40091,7 +40138,7 @@
         <v>-7.3249999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-3.9139999999999999E-3</v>
       </c>
@@ -40207,7 +40254,7 @@
         <v>-7.4019999999999997E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-3.3379999999999998E-3</v>
       </c>
@@ -40323,7 +40370,7 @@
         <v>-7.4590000000000004E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.8630000000000001E-3</v>
       </c>
@@ -40439,7 +40486,7 @@
         <v>-7.2329999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.5950000000000001E-3</v>
       </c>
@@ -40555,7 +40602,7 @@
         <v>-7.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.2750000000000001E-3</v>
       </c>
@@ -40671,7 +40718,7 @@
         <v>-6.9519999999999998E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-1.8400000000000001E-3</v>
       </c>
@@ -40787,7 +40834,7 @@
         <v>-6.6689999999999996E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-1.9289999999999999E-3</v>
       </c>
@@ -40903,7 +40950,7 @@
         <v>-6.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.0300000000000001E-3</v>
       </c>
@@ -41019,7 +41066,7 @@
         <v>-6.3080000000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.0089999999999999E-3</v>
       </c>
@@ -41135,7 +41182,7 @@
         <v>-6.0219999999999996E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-2.2070000000000002E-3</v>
       </c>
@@ -41251,7 +41298,7 @@
         <v>-6.1789999999999996E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.639E-3</v>
       </c>
@@ -41367,7 +41414,7 @@
         <v>-5.9179999999999996E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.768E-3</v>
       </c>
@@ -41483,7 +41530,7 @@
         <v>-5.7629999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-2.0270000000000002E-3</v>
       </c>
@@ -41599,7 +41646,7 @@
         <v>-5.9030000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.542E-3</v>
       </c>
@@ -41715,7 +41762,7 @@
         <v>-5.6210000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.1839999999999999E-3</v>
       </c>
@@ -41831,7 +41878,7 @@
         <v>-5.4819999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.065E-3</v>
       </c>
@@ -41947,7 +41994,7 @@
         <v>-5.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.1509999999999999E-3</v>
       </c>
@@ -42063,7 +42110,7 @@
         <v>-5.5539999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-7.7499999999999997E-4</v>
       </c>
@@ -42179,7 +42226,7 @@
         <v>-5.3239999999999997E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2.99E-4</v>
       </c>
@@ -42295,7 +42342,7 @@
         <v>-5.4510000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3.1799999999999998E-4</v>
       </c>
@@ -42411,7 +42458,7 @@
         <v>-5.901E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.1399999999999996E-4</v>
       </c>
@@ -42527,7 +42574,7 @@
         <v>-5.7650000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.869E-3</v>
       </c>
@@ -42643,7 +42690,7 @@
         <v>-5.6880000000000003E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.691E-3</v>
       </c>
@@ -42759,7 +42806,7 @@
         <v>-6.13E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2.0119999999999999E-3</v>
       </c>
@@ -42875,7 +42922,7 @@
         <v>-6.3470000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.8839999999999998E-3</v>
       </c>
@@ -42991,7 +43038,7 @@
         <v>-6.025E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3.0179999999999998E-3</v>
       </c>
@@ -43107,7 +43154,7 @@
         <v>-6.0769999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.614E-3</v>
       </c>
@@ -43223,7 +43270,7 @@
         <v>-6.1279999999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2.6389999999999999E-3</v>
       </c>
@@ -43339,7 +43386,7 @@
         <v>-6.2789999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2.3890000000000001E-3</v>
       </c>
@@ -43455,7 +43502,7 @@
         <v>-6.3220000000000004E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2.418E-3</v>
       </c>
@@ -43571,7 +43618,7 @@
         <v>-5.6829999999999997E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.5510000000000001E-3</v>
       </c>
@@ -43687,7 +43734,7 @@
         <v>-5.587E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.6980000000000001E-3</v>
       </c>
@@ -43803,7 +43850,7 @@
         <v>-6.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.8799999999999999E-4</v>
       </c>
@@ -43919,7 +43966,7 @@
         <v>-5.9059999999999998E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-4.06E-4</v>
       </c>
@@ -44035,7 +44082,7 @@
         <v>-5.8310000000000002E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-1.366E-3</v>
       </c>
